--- a/EFT_world_data.xlsx
+++ b/EFT_world_data.xlsx
@@ -90,10 +90,10 @@
     <t>EFT_soceco</t>
   </si>
   <si>
-    <t>ANTHR_ind_nn</t>
-  </si>
-  <si>
-    <t>EFT_anthr_nn</t>
+    <t>ANTHR_ind</t>
+  </si>
+  <si>
+    <t>EFT_anthr</t>
   </si>
   <si>
     <t>EFT_eco_incent_gdp</t>
@@ -108,10 +108,10 @@
     <t>EFT_soceco_incent_sqkm</t>
   </si>
   <si>
-    <t>EFT_anthr_nn_incent_gdp</t>
-  </si>
-  <si>
-    <t>EFT_anthr_nn_incent_sqkm</t>
+    <t>EFT_anthr_incent_gdp</t>
+  </si>
+  <si>
+    <t>EFT_anthr_incent_sqkm</t>
   </si>
   <si>
     <t>EFT_eco_incent_abs</t>
@@ -120,7 +120,7 @@
     <t>EFT_soceco_incent_abs</t>
   </si>
   <si>
-    <t>EFT_anthr_nn_incent_abs</t>
+    <t>EFT_anthr_incent_abs</t>
   </si>
   <si>
     <t>PAgap</t>
@@ -2586,10 +2586,10 @@
     <t>EFT flows from socio-ecological design of a 1 B fund</t>
   </si>
   <si>
-    <t>Indicator for anthropocentric design w_k*(PA_i/HDI_i)*pop.dens (non-normalized population density)</t>
-  </si>
-  <si>
-    <t>EFT flows from anthroprocentric design of a 1 B fund (non-normalized population density)</t>
+    <t>Indicator for anthropocentric design w_k*(PA_i/HDI_i)*pop.dens</t>
+  </si>
+  <si>
+    <t>EFT flows from anthroprocentric design of a 1 B fund</t>
   </si>
   <si>
     <t>EFT ecocentric design incentives per GDP (in percent)</t>
